--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.62136022405498</v>
+        <v>0.111678</v>
       </c>
       <c r="N2">
-        <v>1.62136022405498</v>
+        <v>0.335034</v>
       </c>
       <c r="O2">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="P2">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="Q2">
-        <v>117.5102936168361</v>
+        <v>10.756908271788</v>
       </c>
       <c r="R2">
-        <v>117.5102936168361</v>
+        <v>96.812174446092</v>
       </c>
       <c r="S2">
-        <v>0.08491083232562682</v>
+        <v>0.005710954517404749</v>
       </c>
       <c r="T2">
-        <v>0.08491083232562682</v>
+        <v>0.00571095451740475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.7000562287679</v>
+        <v>2.242708666666667</v>
       </c>
       <c r="N3">
-        <v>4.7000562287679</v>
+        <v>6.728126</v>
       </c>
       <c r="O3">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="P3">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="Q3">
-        <v>340.6429856018392</v>
+        <v>216.0193718339987</v>
       </c>
       <c r="R3">
-        <v>340.6429856018392</v>
+        <v>1944.174346505988</v>
       </c>
       <c r="S3">
-        <v>0.2461425169070856</v>
+        <v>0.1146869319930764</v>
       </c>
       <c r="T3">
-        <v>0.2461425169070856</v>
+        <v>0.1146869319930764</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.6297709659693</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>17.6297709659693</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.08052824962745436</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.08052824962745436</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.62136022405498</v>
+        <v>0.02011033333333333</v>
       </c>
       <c r="N4">
-        <v>1.62136022405498</v>
+        <v>0.060331</v>
       </c>
       <c r="O4">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="P4">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="Q4">
-        <v>28.58420940342197</v>
+        <v>1.937042308975333</v>
       </c>
       <c r="R4">
-        <v>28.58420940342197</v>
+        <v>17.433380780778</v>
       </c>
       <c r="S4">
-        <v>0.02065443747190865</v>
+        <v>0.001028395915010256</v>
       </c>
       <c r="T4">
-        <v>0.02065443747190865</v>
+        <v>0.001028395915010256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.6297709659693</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>17.6297709659693</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.08052824962745436</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.08052824962745436</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.7000562287679</v>
+        <v>5.075634</v>
       </c>
       <c r="N5">
-        <v>4.7000562287679</v>
+        <v>15.226902</v>
       </c>
       <c r="O5">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="P5">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="Q5">
-        <v>82.86091484035548</v>
+        <v>488.888853302964</v>
       </c>
       <c r="R5">
-        <v>82.86091484035548</v>
+        <v>4399.999679726676</v>
       </c>
       <c r="S5">
-        <v>0.05987381215554571</v>
+        <v>0.2595561786653874</v>
       </c>
       <c r="T5">
-        <v>0.05987381215554571</v>
+        <v>0.2595561786653874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>114.377483679854</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>114.377483679854</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.62136022405498</v>
+        <v>0.111678</v>
       </c>
       <c r="N6">
-        <v>1.62136022405498</v>
+        <v>0.335034</v>
       </c>
       <c r="O6">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="P6">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="Q6">
-        <v>185.4471025660129</v>
+        <v>2.062098011876</v>
       </c>
       <c r="R6">
-        <v>185.4471025660129</v>
+        <v>18.558882106884</v>
       </c>
       <c r="S6">
-        <v>0.1340007530114791</v>
+        <v>0.001094789288771829</v>
       </c>
       <c r="T6">
-        <v>0.1340007530114791</v>
+        <v>0.001094789288771829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.377483679854</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>114.377483679854</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.7000562287679</v>
+        <v>2.242708666666667</v>
       </c>
       <c r="N7">
-        <v>4.7000562287679</v>
+        <v>6.728126</v>
       </c>
       <c r="O7">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="P7">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="Q7">
-        <v>537.5806046002966</v>
+        <v>41.41088739725289</v>
       </c>
       <c r="R7">
-        <v>537.5806046002966</v>
+        <v>372.6979865752759</v>
       </c>
       <c r="S7">
-        <v>0.3884461111769782</v>
+        <v>0.02198547096207326</v>
       </c>
       <c r="T7">
-        <v>0.3884461111769782</v>
+        <v>0.02198547096207326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.4429202435963</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>14.4429202435963</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.06597153695137585</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.06597153695137585</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.62136022405498</v>
+        <v>0.02011033333333333</v>
       </c>
       <c r="N8">
-        <v>1.62136022405498</v>
+        <v>0.060331</v>
       </c>
       <c r="O8">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="P8">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="Q8">
-        <v>23.4171764021655</v>
+        <v>0.3713307758451111</v>
       </c>
       <c r="R8">
-        <v>23.4171764021655</v>
+        <v>3.341976982606</v>
       </c>
       <c r="S8">
-        <v>0.01692083202095769</v>
+        <v>0.0001971433722574224</v>
       </c>
       <c r="T8">
-        <v>0.01692083202095769</v>
+        <v>0.0001971433722574224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.4429202435963</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>14.4429202435963</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.06597153695137585</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.06597153695137585</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.7000562287679</v>
+        <v>5.075634</v>
       </c>
       <c r="N9">
-        <v>4.7000562287679</v>
+        <v>15.226902</v>
       </c>
       <c r="O9">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="P9">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="Q9">
-        <v>67.88253725251278</v>
+        <v>93.719933920828</v>
       </c>
       <c r="R9">
-        <v>67.88253725251278</v>
+        <v>843.4794052874519</v>
       </c>
       <c r="S9">
-        <v>0.04905070493041816</v>
+        <v>0.04975688798981102</v>
       </c>
       <c r="T9">
-        <v>0.04905070493041816</v>
+        <v>0.04975688798981102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>122.909391</v>
+      </c>
+      <c r="H10">
+        <v>368.728173</v>
+      </c>
+      <c r="I10">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="J10">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.111678</v>
+      </c>
+      <c r="N10">
+        <v>0.335034</v>
+      </c>
+      <c r="O10">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="P10">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="Q10">
+        <v>13.726274968098</v>
+      </c>
+      <c r="R10">
+        <v>123.536474712882</v>
+      </c>
+      <c r="S10">
+        <v>0.0072874221900536</v>
+      </c>
+      <c r="T10">
+        <v>0.007287422190053601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>122.909391</v>
+      </c>
+      <c r="H11">
+        <v>368.728173</v>
+      </c>
+      <c r="I11">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="J11">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.242708666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.728126</v>
+      </c>
+      <c r="O11">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="P11">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="Q11">
+        <v>275.649956410422</v>
+      </c>
+      <c r="R11">
+        <v>2480.849607693798</v>
+      </c>
+      <c r="S11">
+        <v>0.1463454297470602</v>
+      </c>
+      <c r="T11">
+        <v>0.1463454297470602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>122.909391</v>
+      </c>
+      <c r="H12">
+        <v>368.728173</v>
+      </c>
+      <c r="I12">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="J12">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02011033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.060331</v>
+      </c>
+      <c r="O12">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="P12">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="Q12">
+        <v>2.471748822807</v>
+      </c>
+      <c r="R12">
+        <v>22.245739405263</v>
+      </c>
+      <c r="S12">
+        <v>0.001312277166341696</v>
+      </c>
+      <c r="T12">
+        <v>0.001312277166341696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>122.909391</v>
+      </c>
+      <c r="H13">
+        <v>368.728173</v>
+      </c>
+      <c r="I13">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="J13">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.075634</v>
+      </c>
+      <c r="N13">
+        <v>15.226902</v>
+      </c>
+      <c r="O13">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="P13">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="Q13">
+        <v>623.8430838788939</v>
+      </c>
+      <c r="R13">
+        <v>5614.587754910045</v>
+      </c>
+      <c r="S13">
+        <v>0.3312047837549967</v>
+      </c>
+      <c r="T13">
+        <v>0.3312047837549967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.127183</v>
+      </c>
+      <c r="H14">
+        <v>45.381549</v>
+      </c>
+      <c r="I14">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="J14">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.111678</v>
+      </c>
+      <c r="N14">
+        <v>0.335034</v>
+      </c>
+      <c r="O14">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="P14">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="Q14">
+        <v>1.689373543074</v>
+      </c>
+      <c r="R14">
+        <v>15.204361887666</v>
+      </c>
+      <c r="S14">
+        <v>0.0008969059904234787</v>
+      </c>
+      <c r="T14">
+        <v>0.0008969059904234788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.127183</v>
+      </c>
+      <c r="H15">
+        <v>45.381549</v>
+      </c>
+      <c r="I15">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="J15">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.242708666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.728126</v>
+      </c>
+      <c r="O15">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="P15">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="Q15">
+        <v>33.92586441635267</v>
+      </c>
+      <c r="R15">
+        <v>305.332779747174</v>
+      </c>
+      <c r="S15">
+        <v>0.01801159438661138</v>
+      </c>
+      <c r="T15">
+        <v>0.01801159438661138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.127183</v>
+      </c>
+      <c r="H16">
+        <v>45.381549</v>
+      </c>
+      <c r="I16">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="J16">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02011033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.060331</v>
+      </c>
+      <c r="O16">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="P16">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="Q16">
+        <v>0.3042126925243334</v>
+      </c>
+      <c r="R16">
+        <v>2.737914232719</v>
+      </c>
+      <c r="S16">
+        <v>0.0001615096835194007</v>
+      </c>
+      <c r="T16">
+        <v>0.0001615096835194007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.127183</v>
+      </c>
+      <c r="H17">
+        <v>45.381549</v>
+      </c>
+      <c r="I17">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="J17">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.075634</v>
+      </c>
+      <c r="N17">
+        <v>15.226902</v>
+      </c>
+      <c r="O17">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="P17">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="Q17">
+        <v>76.780044359022</v>
+      </c>
+      <c r="R17">
+        <v>691.020399231198</v>
+      </c>
+      <c r="S17">
+        <v>0.04076332437720127</v>
+      </c>
+      <c r="T17">
+        <v>0.04076332437720127</v>
       </c>
     </row>
   </sheetData>
